--- a/app/webroot/img/gatepass1.xlsx
+++ b/app/webroot/img/gatepass1.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -460,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,7 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -494,74 +496,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,12 +547,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -945,7 +975,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,32 +992,32 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="3"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
@@ -996,48 +1026,48 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="15"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1049,34 +1079,34 @@
       <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="37" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -1084,156 +1114,179 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="36">
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="C6:E6"/>
@@ -1247,29 +1300,6 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F16:H16"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/webroot/img/gatepass1.xlsx
+++ b/app/webroot/img/gatepass1.xlsx
@@ -463,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,16 +474,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -496,6 +489,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -517,61 +519,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,7 +977,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17"/>
@@ -1001,23 +1003,23 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
-      <c r="I1" s="36"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="3"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1026,48 +1028,48 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="14"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1078,7 @@
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -1090,22 +1092,22 @@
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="44" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1114,109 +1116,109 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="26"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
@@ -1245,21 +1247,21 @@
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1292,14 +1294,14 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F17:J17"/>
     <mergeCell ref="F18:J18"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
